--- a/data/funding_data.xlsx
+++ b/data/funding_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Downloads\Dynamic-Shiny - MarcosEdited\Dynamic-Shiny - MarcosEdited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB16D3-20A5-426B-9626-FDCBF9A0C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347683BC-89FF-4241-8F7D-632A4AE4DBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +326,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +361,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +413,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,22 +608,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="43.08984375" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -641,7 +675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -667,7 +701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -693,7 +727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -719,7 +753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -745,7 +779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -771,7 +805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -797,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -823,7 +857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -849,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -875,7 +909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -901,7 +935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -927,7 +961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -953,7 +987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
